--- a/test_cases/PE-54/TC-12-Mail.xlsx
+++ b/test_cases/PE-54/TC-12-Mail.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Desktop\casos de prueba\PE-54\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0522F087-B5C6-443C-944F-24A1D581ACED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FBE894-F5B9-41D9-9BB4-DD8F4E5F5800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4878CB20-F5DA-4D89-879F-D1C366F35C19}"/>
   </bookViews>
@@ -133,12 +133,6 @@
     <t>ingresar mail2</t>
   </si>
   <si>
-    <t>Muestra valido, permite que se ingrese la contraseña</t>
-  </si>
-  <si>
-    <t>Muestra invalido, permite que se ingrese la contraseña</t>
-  </si>
-  <si>
     <t>Ingresa la contraseña</t>
   </si>
   <si>
@@ -167,6 +161,12 @@
   </si>
   <si>
     <t>Access to Chrome Browser</t>
+  </si>
+  <si>
+    <t>Muestra invalido</t>
+  </si>
+  <si>
+    <t>Muestra valido</t>
   </si>
 </sst>
 </file>
@@ -677,13 +677,54 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -695,7 +736,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -705,54 +745,14 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B647B-A62E-4E07-8E2B-D01E81153806}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,15 +1081,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="30"/>
+      <c r="D1" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="46"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1150,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1180,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1190,31 +1190,31 @@
       <c r="B11" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
+      <c r="B13" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="35"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="34"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="19" t="s">
         <v>16</v>
       </c>
@@ -1226,116 +1226,104 @@
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="42" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="30"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="30"/>
+      <c r="E18" s="46"/>
     </row>
     <row r="19" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>2</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="45"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>3</v>
       </c>
-      <c r="B20" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="47"/>
+      <c r="B20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
     </row>
     <row r="21" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25">
         <v>4</v>
       </c>
-      <c r="B21" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="49"/>
+      <c r="B21" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="30"/>
     </row>
     <row r="22" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25">
         <v>5</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="45"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="33"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="27">
         <v>6</v>
       </c>
-      <c r="B23" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="55"/>
+      <c r="B23" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="28">
         <v>7</v>
       </c>
-      <c r="B24" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="53"/>
+      <c r="B24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D1:E1"/>
@@ -1344,6 +1332,18 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1" xr:uid="{C05B3432-3D85-4DBF-8421-FB33CC81DB9E}"/>

--- a/test_cases/PE-54/TC-12-Mail.xlsx
+++ b/test_cases/PE-54/TC-12-Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FBE894-F5B9-41D9-9BB4-DD8F4E5F5800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D2885-D2EC-482A-AEB0-966BFA9B10E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4878CB20-F5DA-4D89-879F-D1C366F35C19}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -98,29 +98,6 @@
     <t>Expected Results</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Navigate to </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>http://demo.guru99.com</t>
-    </r>
-  </si>
-  <si>
-    <t>Site should open</t>
-  </si>
-  <si>
     <t>Mail1 = xx@x@gd.#</t>
   </si>
   <si>
@@ -167,13 +144,16 @@
   </si>
   <si>
     <t>Muestra valido</t>
+  </si>
+  <si>
+    <t>click in login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,32 +221,8 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -318,7 +274,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -578,22 +534,113 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -659,7 +706,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -668,74 +715,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -751,8 +749,75 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1070,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9B647B-A62E-4E07-8E2B-D01E81153806}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,15 +1146,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="46"/>
+      <c r="D1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1150,25 +1215,27 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>2</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="17" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1180,7 +1247,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1190,31 +1257,31 @@
       <c r="B11" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="35"/>
+      <c r="B13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="49"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="58"/>
+      <c r="B15" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="41"/>
       <c r="D15" s="19" t="s">
         <v>16</v>
       </c>
@@ -1226,104 +1293,104 @@
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="56" t="s">
+      <c r="C17" s="27"/>
+      <c r="D17" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="46"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="27"/>
+    </row>
+    <row r="18" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="46"/>
+      <c r="B18" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>2</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C19" s="49"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="63"/>
+    </row>
+    <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>3</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="61"/>
     </row>
     <row r="21" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25">
         <v>4</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="30"/>
+      <c r="B21" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="59"/>
     </row>
     <row r="22" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25">
         <v>5</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="27">
+      <c r="B22" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="25">
         <v>6</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="37"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="28">
-        <v>7</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="32"/>
+      <c r="A24" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D1:E1"/>
@@ -1332,23 +1399,8 @@
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B22:C22"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{C05B3432-3D85-4DBF-8421-FB33CC81DB9E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test_cases/PE-54/TC-12-Mail.xlsx
+++ b/test_cases/PE-54/TC-12-Mail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramiro\Documents\GitHub\TestingAplicaciones-Alvinylasardillas-TPO\test_cases\PE-54\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699D2885-D2EC-482A-AEB0-966BFA9B10E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B58641-A277-4867-82E5-14338A4AA3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4878CB20-F5DA-4D89-879F-D1C366F35C19}"/>
   </bookViews>
@@ -131,9 +131,6 @@
     <t>TC-12</t>
   </si>
   <si>
-    <t>Mail2 =xx@xx.com</t>
-  </si>
-  <si>
     <t>Muestra el mensaje de error "User or Password are invalid. Please try again"</t>
   </si>
   <si>
@@ -147,6 +144,9 @@
   </si>
   <si>
     <t>click in login</t>
+  </si>
+  <si>
+    <t>Mail2 = sample@example.com</t>
   </si>
 </sst>
 </file>
@@ -718,13 +718,83 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -748,76 +818,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1151,10 +1151,10 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="27"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -1215,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="18">
         <v>1</v>
@@ -1224,18 +1224,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16">
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>32</v>
+      <c r="E9" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
@@ -1257,31 +1257,31 @@
       <c r="B11" s="17"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61"/>
     </row>
     <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="41"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="19" t="s">
         <v>16</v>
       </c>
@@ -1293,94 +1293,102 @@
       <c r="A17" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="39" t="s">
+      <c r="C17" s="53"/>
+      <c r="D17" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="27"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <v>1</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="64"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <v>2</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24">
         <v>3</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="61"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="25">
         <v>4</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="58" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="59"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="43"/>
     </row>
     <row r="22" spans="1:5" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="25">
         <v>5</v>
       </c>
-      <c r="B22" s="54" t="s">
+      <c r="B22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
     </row>
     <row r="23" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25">
         <v>6</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="44"/>
-      <c r="D23" s="46" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="47"/>
+      <c r="E23" s="35"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="65"/>
+      <c r="A24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="B23:C23"/>
@@ -1391,14 +1399,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
